--- a/src/test/java/ApachePOI/resource/employee.xlsx
+++ b/src/test/java/ApachePOI/resource/employee.xlsx
@@ -101,7 +101,9 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2"/>
+      <c r="A2" t="n">
+        <v>101.0</v>
+      </c>
       <c r="B2" t="s">
         <v>3</v>
       </c>
@@ -110,7 +112,9 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3"/>
+      <c r="A3" t="n">
+        <v>102.0</v>
+      </c>
       <c r="B3" t="s">
         <v>5</v>
       </c>
@@ -119,7 +123,9 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4"/>
+      <c r="A4" t="n">
+        <v>103.0</v>
+      </c>
       <c r="B4" t="s">
         <v>7</v>
       </c>
